--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_43.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_43.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_9</t>
+          <t>model_1_43_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998777473708419</v>
+        <v>0.9498465482659846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8245186815265971</v>
+        <v>0.7476293252540684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.816756451653158</v>
+        <v>0.770022347316204</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996994339606731</v>
+        <v>0.9727335156016335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005088798326287146</v>
+        <v>0.1758134557706941</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173444384648819</v>
+        <v>1.687603864086149</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6554515473652422</v>
+        <v>0.8226167287794617</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001208935688766776</v>
+        <v>0.03477285507073407</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05488994434009247</v>
+        <v>1.303483199700272</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02255836502561111</v>
+        <v>0.419301151644846</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007824168266119</v>
+        <v>0.9317059380643194</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02291363672467252</v>
+        <v>0.4259047256358752</v>
       </c>
       <c r="N2" t="n">
-        <v>145.1665973089901</v>
+        <v>37.47666351288002</v>
       </c>
       <c r="O2" t="n">
-        <v>286.5017698522065</v>
+        <v>74.44124710110584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_7</t>
+          <t>model_1_43_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998689459499954</v>
+        <v>0.9497544463130515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8243539945689412</v>
+        <v>0.7475999382219584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8159627842395492</v>
+        <v>0.7712983456152575</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997130230935704</v>
+        <v>0.9733168671530381</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005455159818721731</v>
+        <v>0.1761363201413114</v>
       </c>
       <c r="G3" t="n">
-        <v>1.174545647092978</v>
+        <v>1.687800375305184</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6582904496842402</v>
+        <v>0.8180525568503801</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001154277525204388</v>
+        <v>0.03402890881584041</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05808128603494177</v>
+        <v>1.293720395587078</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02335628356293383</v>
+        <v>0.4196859780136947</v>
       </c>
       <c r="L3" t="n">
-        <v>1.008387459200293</v>
+        <v>0.9315805226390489</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02372412168133216</v>
+        <v>0.426295612635348</v>
       </c>
       <c r="N3" t="n">
-        <v>145.0275569109256</v>
+        <v>37.47299407498537</v>
       </c>
       <c r="O3" t="n">
-        <v>286.362729454142</v>
+        <v>74.4375776632112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_8</t>
+          <t>model_1_43_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999869844693844</v>
+        <v>0.9497216248648279</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8243133464096597</v>
+        <v>0.7475891940195452</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8160529243987087</v>
+        <v>0.7717338622569647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997027944662804</v>
+        <v>0.9735127063007573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005417749366088919</v>
+        <v>0.1762513760753712</v>
       </c>
       <c r="G4" t="n">
-        <v>1.174817461521261</v>
+        <v>1.687872221836194</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6579680235615535</v>
+        <v>0.8164947390756988</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001195419074680627</v>
+        <v>0.03377915581500171</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0566366126999917</v>
+        <v>1.290419848928642</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02327605930154183</v>
+        <v>0.4198230294723851</v>
       </c>
       <c r="L4" t="n">
-        <v>1.008329939593985</v>
+        <v>0.9315358296031699</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02364263396801808</v>
+        <v>0.4264348225175116</v>
       </c>
       <c r="N4" t="n">
-        <v>145.0413197777444</v>
+        <v>37.4716880596008</v>
       </c>
       <c r="O4" t="n">
-        <v>286.3764923209608</v>
+        <v>74.43627164782663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_6</t>
+          <t>model_1_43_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998674558958965</v>
+        <v>0.9498941940883221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8242263615266666</v>
+        <v>0.7475728188188142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8158760211698739</v>
+        <v>0.7692363431685134</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997370945701554</v>
+        <v>0.972328802103488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005517183718382428</v>
+        <v>0.1756464328363082</v>
       </c>
       <c r="G5" t="n">
-        <v>1.175399129834364</v>
+        <v>1.687981722878883</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6586007961536569</v>
+        <v>0.8254282200406119</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001057457314943537</v>
+        <v>0.03528898482221111</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05589261032960193</v>
+        <v>1.309890104354553</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02348868603898998</v>
+        <v>0.4191019360922926</v>
       </c>
       <c r="L5" t="n">
-        <v>1.008482822662621</v>
+        <v>0.9317708174819705</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02385860936403228</v>
+        <v>0.4257023726375117</v>
       </c>
       <c r="N5" t="n">
-        <v>145.0049456756533</v>
+        <v>37.47856441767598</v>
       </c>
       <c r="O5" t="n">
-        <v>286.3401182188696</v>
+        <v>74.44314800590179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_5</t>
+          <t>model_1_43_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998622056620087</v>
+        <v>0.9498662580067124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8237939497318196</v>
+        <v>0.7475650574041113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8154149510058439</v>
+        <v>0.7696475546738956</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997495044034913</v>
+        <v>0.9725225961115562</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005735726105614191</v>
+        <v>0.1757443630660067</v>
       </c>
       <c r="G6" t="n">
-        <v>1.17829066949758</v>
+        <v>1.68803362349474</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6602500173960079</v>
+        <v>0.8239573403292733</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001007542526016613</v>
+        <v>0.03504183998103255</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05707575070240254</v>
+        <v>1.306699612121541</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02394937599524086</v>
+        <v>0.4192187532375033</v>
       </c>
       <c r="L6" t="n">
-        <v>1.008818837631445</v>
+        <v>0.9317327768602042</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0243265547265731</v>
+        <v>0.4258210295359851</v>
       </c>
       <c r="N6" t="n">
-        <v>144.9272520397724</v>
+        <v>37.47744964479773</v>
       </c>
       <c r="O6" t="n">
-        <v>286.2624245829888</v>
+        <v>74.44203323302355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_3</t>
+          <t>model_1_43_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998435815499538</v>
+        <v>0.9500726131136012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8236108021999844</v>
+        <v>0.7474881120762468</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8149599560569156</v>
+        <v>0.7662013169918748</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997966812029397</v>
+        <v>0.9707833749126609</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006510959741945815</v>
+        <v>0.1750209830551856</v>
       </c>
       <c r="G7" t="n">
-        <v>1.179515377886278</v>
+        <v>1.68854815725647</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6618775079462014</v>
+        <v>0.8362843326935194</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0008177881656682481</v>
+        <v>0.03725986287689066</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06895343144034985</v>
+        <v>1.334502617772851</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02551658233765999</v>
+        <v>0.4183550920631726</v>
       </c>
       <c r="L7" t="n">
-        <v>1.010010780802958</v>
+        <v>0.9320137710483081</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02591844300225375</v>
+        <v>0.4249437665615031</v>
       </c>
       <c r="N7" t="n">
-        <v>144.6737070016474</v>
+        <v>37.48569881814789</v>
       </c>
       <c r="O7" t="n">
-        <v>286.0088795448638</v>
+        <v>74.45028240637372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_4</t>
+          <t>model_1_43_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998558779894219</v>
+        <v>0.9500502960715881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8236066076848921</v>
+        <v>0.747479479720248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8148442810444385</v>
+        <v>0.7665763731819462</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997805761867181</v>
+        <v>0.9709707635112484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005999117166326761</v>
+        <v>0.1750992156821188</v>
       </c>
       <c r="G8" t="n">
-        <v>1.179543426628014</v>
+        <v>1.688605881860783</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6622912707586095</v>
+        <v>0.8349427784486416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008825657064780196</v>
+        <v>0.03702088683269685</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06044668876466158</v>
+        <v>1.331491276792041</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02449309528484867</v>
+        <v>0.4184485818856586</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009223808677</v>
+        <v>0.9319833818847156</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02487883705147235</v>
+        <v>0.4250387287552377</v>
       </c>
       <c r="N8" t="n">
-        <v>144.8374561050393</v>
+        <v>37.48480503791451</v>
       </c>
       <c r="O8" t="n">
-        <v>286.1726286482557</v>
+        <v>74.44938862614032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_2</t>
+          <t>model_1_43_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998401277091065</v>
+        <v>0.950081206315081</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8235117966117742</v>
+        <v>0.7473846536677906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.815033091449532</v>
+        <v>0.7658990794532097</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999788893626999</v>
+        <v>0.9705787695069351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006654726789281075</v>
+        <v>0.1749908594964665</v>
       </c>
       <c r="G9" t="n">
-        <v>1.180177428710519</v>
+        <v>1.689239984110199</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6616159068874465</v>
+        <v>0.8373654188445853</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008491113268107197</v>
+        <v>0.03752079545683186</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06902826925493247</v>
+        <v>1.337432643791099</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02579675713976676</v>
+        <v>0.41831908813305</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010231826617186</v>
+        <v>0.9320254724290464</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02620303027742165</v>
+        <v>0.4249071956054718</v>
       </c>
       <c r="N9" t="n">
-        <v>144.6300259488464</v>
+        <v>37.48604307574299</v>
       </c>
       <c r="O9" t="n">
-        <v>285.9651984920628</v>
+        <v>74.45062666396882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_1</t>
+          <t>model_1_43_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998212643354886</v>
+        <v>0.9502056338337854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8234546426449589</v>
+        <v>0.7473441314897604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8148278105258606</v>
+        <v>0.7634727631093735</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998178428022576</v>
+        <v>0.9692903369652016</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007439919752050474</v>
+        <v>0.1745546775129728</v>
       </c>
       <c r="G10" t="n">
-        <v>1.180559617549783</v>
+        <v>1.689510956101274</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6623501848485471</v>
+        <v>0.8460442117205823</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0007326720537346987</v>
+        <v>0.03916392910719712</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06941639348899073</v>
+        <v>1.35754568103347</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02727621629194649</v>
+        <v>0.4177974120467632</v>
       </c>
       <c r="L10" t="n">
-        <v>1.011439082528732</v>
+        <v>0.9321949056460057</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02770578943233164</v>
+        <v>0.4243773036423107</v>
       </c>
       <c r="N10" t="n">
-        <v>144.4069606184081</v>
+        <v>37.49103449647317</v>
       </c>
       <c r="O10" t="n">
-        <v>285.7421331616246</v>
+        <v>74.455618084699</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_0</t>
+          <t>model_1_43_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998138948875789</v>
+        <v>0.9502355402285282</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8234410821080101</v>
+        <v>0.7473230356013669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8146742703390272</v>
+        <v>0.7628165645451719</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998167000697664</v>
+        <v>0.9689218166504697</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007746674988698382</v>
+        <v>0.1744498403297364</v>
       </c>
       <c r="G11" t="n">
-        <v>1.180650296922799</v>
+        <v>1.689652024404098</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6628993891940786</v>
+        <v>0.8483913959361526</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000737268348427303</v>
+        <v>0.03963390181462694</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07091833026667398</v>
+        <v>1.363111228164647</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02783284927688572</v>
+        <v>0.4176719290660272</v>
       </c>
       <c r="L11" t="n">
-        <v>1.011910727194952</v>
+        <v>0.9322356292473575</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02827118883035482</v>
+        <v>0.424249844430065</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3261533087771</v>
+        <v>37.49223605325574</v>
       </c>
       <c r="O11" t="n">
-        <v>285.6613258519935</v>
+        <v>74.45681964148156</v>
       </c>
     </row>
   </sheetData>
